--- a/Eli Lilly DCF 10-26-22.xlsx
+++ b/Eli Lilly DCF 10-26-22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{579D7FDA-5D6B-7F49-A28F-8EC235850B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79141B66-03D2-2C40-B83A-A7BD9BDC6089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23680" yWindow="460" windowWidth="27040" windowHeight="26980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="136">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>Upside / Downside</t>
+  </si>
+  <si>
+    <t>Present Value of Future Cash Flows</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -759,6 +762,9 @@
     </xf>
     <xf numFmtId="9" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1081,7 +1087,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP106" sqref="AP106"/>
+      <selection pane="bottomRight" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1338,7 +1344,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>573800000</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>0.1971</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -13048,6 +13054,9 @@
       </c>
     </row>
     <row r="101" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="53" t="s">
+        <v>135</v>
+      </c>
       <c r="AM101" s="1">
         <f>AM99/(1+$AQ$55)^AM98</f>
         <v>5874582981.1709471</v>

--- a/Eli Lilly DCF 10-26-22.xlsx
+++ b/Eli Lilly DCF 10-26-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79141B66-03D2-2C40-B83A-A7BD9BDC6089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A83346A-1247-3745-9FA5-805087964272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23680" yWindow="460" windowWidth="27040" windowHeight="26980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25360" windowHeight="26980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1084,10 +1084,10 @@
   <dimension ref="A1:AS112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A104" sqref="A104"/>
+      <selection pane="bottomRight" activeCell="AN96" sqref="AN96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,10 +1219,10 @@
         <v>2021</v>
       </c>
       <c r="AM1" s="23">
+        <v>2022</v>
+      </c>
+      <c r="AN1" s="23">
         <v>2023</v>
-      </c>
-      <c r="AN1" s="23">
-        <v>2024</v>
       </c>
       <c r="AO1" s="24" t="s">
         <v>98</v>
